--- a/Brighway/Results/Lobster - CONSQ_recipe.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -77,195 +77,6 @@
   </si>
   <si>
     <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.022795999451339706], ["Transport", 1.143209458023814e-05], ["Waste", 2.942409596599481e-05], ["marginal heating grid", -0.00027147224952672896], ["market for electricity, high voltage", -7.800906551536072e-05], ["erbe", 0.00020696960562547324]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.011363246437063152], ["erbe", 0.00020696960562547324], ["Remanufacturing DE", 0.00021423504299291377], ["Transport", 3.1891914167260076e-05], ["Waste", 3.9158821658473844e-05], ["marginal heating grid", -0.0001357361247635117], ["market for electricity, high voltage", -3.900453275768036e-05]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.00047328920939370626], ["Bipolar burner (prod) DE", 0.00018519346089782525], ["Dishwasher (use) - DK", 0.000638740599885611], ["Scalpel (prod) DE", 0.0003819820658971264], ["Transport", 4.676204672837516e-06], ["Waste", 6.837471764850578e-06], ["marginal heating grid", -3.9940412847668846e-05], ["market for electricity, high voltage", -1.154427690932962e-05]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 2.8387716721956298], ["Transport", 0.009325515434515421], ["Waste", 0.4270857257001284], ["marginal heating grid", -0.3293998618617417], ["market for electricity, high voltage", -0.08762786073118503], ["erbe", 0.143252448423407]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 1.2359100509393606], ["erbe", 0.143252448423407], ["Remanufacturing DE", 0.1644467878289248], ["Transport", 0.026015227193550768], ["Waste", 0.47612660426207937], ["marginal heating grid", -0.1646999309308714], ["market for electricity, high voltage", -0.043813930365592516]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.2443698475091307], ["Bipolar burner (prod) DE", 0.05521174659371063], ["Dishwasher (use) - DK", 0.5291382578581236], ["Scalpel (prod) DE", 0.03422713734085037], ["Transport", 0.003814525723648822], ["Waste", 0.005558874362753375], ["marginal heating grid", -0.04846302521776617], ["market for electricity, high voltage", -0.01296772730925456]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.7100803223028939], ["Transport", 0.00025509249346860696], ["Waste", 0.03504646889542662], ["marginal heating grid", -0.007337210497426944], ["market for electricity, high voltage", -0.0036235452871638033], ["erbe", 0.036860658178758374]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.4592444212716528], ["erbe", 0.036860658178758374], ["Remanufacturing DE", 0.024268212146000334], ["Transport", 0.0007116270644290736], ["Waste", 0.035514892941760585], ["marginal heating grid", -0.003668605248715809], ["market for electricity, high voltage", -0.0018117726435819017]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.008607100698927648], ["Bipolar burner (prod) DE", 0.0032389482275325403], ["Dishwasher (use) - DK", 0.021329354689608903], ["Scalpel (prod) DE", 0.011284572413372516], ["Transport", 0.0001043434955502859], ["Waste", 0.00012282424739188037], ["marginal heating grid", -0.0010794886657077792], ["market for electricity, high voltage", -0.0005362352428165077]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.9564175683523666], ["Transport", 0.0004315874696953992], ["Waste", 0.04820510442984156], ["marginal heating grid", -0.009405419539545268], ["market for electricity, high voltage", -0.004473628455151182], ["erbe", 0.044835718724945774]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.6123170324989354], ["erbe", 0.044835718724945774], ["Remanufacturing DE", 0.029594059286261507], ["Transport", 0.0012039920106137717], ["Waste", 0.049174235145886105], ["marginal heating grid", -0.0047027097697755205], ["market for electricity, high voltage", -0.002236814227575591]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.011037864227658671], ["Bipolar burner (prod) DE", 0.005326334415461786], ["Dishwasher (use) - DK", 0.025822818301408885], ["Scalpel (prod) DE", 0.015642561968673113], ["Transport", 0.00017653732029267267], ["Waste", 0.00017141928500879957], ["marginal heating grid", -0.0013837743639390594], ["market for electricity, high voltage", -0.0006620359484444278]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 150.78659218418034], ["Transport", 0.17727459857292713], ["Waste", 0.9084424412286342], ["marginal heating grid", -0.7380758595295684], ["market for electricity, high voltage", -0.22708020798318782], ["erbe", 1.3258251593541037]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 79.32452486860748], ["erbe", 1.3258251593541037], ["Remanufacturing DE", 0.9839163765331538], ["Transport", 0.4945398449989097], ["Waste", 1.059629969694459], ["marginal heating grid", -0.3690379297648141], ["market for electricity, high voltage", -0.11354010399159391]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.738007346174707], ["Bipolar burner (prod) DE", 0.7349983715625741], ["Dishwasher (use) - DK", 1.4779551728751452], ["Scalpel (prod) DE", 3.3018513147746154], ["Transport", 0.07251272287890413], ["Waste", 0.008357757733835094], ["marginal heating grid", -0.1085895688929312], ["market for electricity, high voltage", -0.03360477124378837]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.8621046839289883], ["Transport", 0.002929510915005024], ["Waste", 0.00015856342086114635], ["marginal heating grid", -0.04974439226530352], ["market for electricity, high voltage", -0.001825837773640694], ["erbe", 0.045608546433246376]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.37846811753251697], ["erbe", 0.045608546433246376], ["Remanufacturing DE", 0.03710070235872109], ["Transport", 0.008172405327620627], ["Waste", 0.0009872983806865458], ["marginal heating grid", -0.02487219613265368], ["market for electricity, high voltage", -0.000912918886820347]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.06368844519615909], ["Bipolar burner (prod) DE", 0.03451029987912682], ["Dishwasher (use) - DK", 0.01714430184531586], ["Scalpel (prod) DE", 0.013747493380971663], ["Transport", 0.0011982924505853077], ["Waste", 0.00047405397583059254], ["marginal heating grid", -0.007318654364852562], ["market for electricity, high voltage", -0.0002701990686745458]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.0020229571054922843], ["Transport", 9.220204030362626e-07], ["Waste", 9.600136837754658e-06], ["marginal heating grid", -2.856730770965359e-05], ["market for electricity, high voltage", -2.9850606073808963e-06], ["erbe", 1.818650114212794e-05]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.0011348005060075816], ["erbe", 1.818650114212794e-05], ["Remanufacturing DE", 1.587294482355218e-05], ["Transport", 2.5721441812534555e-06], ["Waste", 1.0182434947741154e-05], ["marginal heating grid", -1.4283653854829967e-05], ["market for electricity, high voltage", -1.4925303036904481e-06]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 5.154175681974223e-05], ["Bipolar burner (prod) DE", 1.3098724686813556e-05], ["Dishwasher (use) - DK", 3.7163938549016964e-05], ["Scalpel (prod) DE", 2.205180277539546e-05], ["Transport", 3.771448956154962e-07], ["Waste", 2.0364396113272236e-06], ["marginal heating grid", -4.2029712645069e-06], ["market for electricity, high voltage", -4.41748225223266e-07]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.00011669404471333602], ["Transport", 2.497754500498482e-07], ["Waste", 2.0324420833605896e-06], ["marginal heating grid", -2.5163792959445706e-06], ["market for electricity, high voltage", -3.1891262252801416e-07], ["erbe", 2.567041750932017e-06]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 4.733588557028114e-05], ["erbe", 2.567041750932017e-06], ["Remanufacturing DE", 2.1395937580764564e-06], ["Transport", 6.967942014621997e-07], ["Waste", 2.1299016292443614e-06], ["marginal heating grid", -1.25818964797289e-06], ["market for electricity, high voltage", -1.5945631126400708e-07]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 4.6470853943823635e-06], ["Bipolar burner (prod) DE", 1.3212590569215554e-06], ["Dishwasher (use) - DK", 0.00010041200035906168], ["Scalpel (prod) DE", 1.113720179516915e-06], ["Transport", 1.0216860248012159e-07], ["Waste", 1.425733298125949e-07], ["marginal heating grid", -3.702228428015801e-07], ["market for electricity, high voltage", -4.719471512729192e-08]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.22401217748020186], ["Transport", 0.00012238157028211073], ["Waste", 0.007849442019780821], ["marginal heating grid", -0.002785321186555838], ["market for electricity, high voltage", -0.001112626807663327], ["erbe", 0.006679889245152484]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.11518740828435507], ["erbe", 0.006679889245152484], ["Remanufacturing DE", 0.005187674716347945], ["Transport", 0.0003414057247075094], ["Waste", 0.007459795475867526], ["marginal heating grid", -0.0013926605932769924], ["market for electricity, high voltage", -0.0005563134038316635]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.007885177647634599], ["Bipolar burner (prod) DE", 0.0022593948423794783], ["Dishwasher (use) - DK", 0.009014397567575314], ["Scalpel (prod) DE", 0.0055105781824748325], ["Transport", 5.0059179164911304e-05], ["Waste", 0.0004967905802862445], ["marginal heating grid", -0.0004097909760505699], ["market for electricity, high voltage", -0.00016465358070311497]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 17.131718653998632], ["Transport", 0.0077777954035427276], ["Waste", 0.5608448733900042], ["marginal heating grid", -0.11065699621025192], ["market for electricity, high voltage", -0.036077084148465624], ["erbe", 0.1467455548178703]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 10.060543865944474], ["erbe", 0.1467455548178703], ["Remanufacturing DE", 0.12016112457207374], ["Transport", 0.02169757971116636], ["Waste", 0.5526754237400845], ["marginal heating grid", -0.05532849810515969], ["market for electricity, high voltage", -0.018038542074232812]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.11732557236851504], ["Bipolar burner (prod) DE", 0.0811537765338269], ["Dishwasher (use) - DK", 0.2365581170043115], ["Scalpel (prod) DE", 0.14369693990420981], ["Transport", 0.0031814435189605065], ["Waste", 0.003190397206819988], ["marginal heating grid", -0.016280434264766285], ["market for electricity, high voltage", -0.0053389160187933705]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.2111302741577785], ["Transport", 3.9977861150506413e-05], ["Waste", -0.00024938155568971843], ["marginal heating grid", -0.011287049739306073], ["market for electricity, high voltage", -1.853635412334754e-05], ["erbe", 0.0004391135304654974]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.09034648594310628], ["erbe", 0.0004391135304654974], ["Remanufacturing DE", 0.0007286089974920869], ["Transport", 0.00011152553956348492], ["Waste", -0.0002635811666521836], ["marginal heating grid", -0.005643524869684946], ["market for electricity, high voltage", -9.26817706167377e-06]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.013331997262635797], ["Bipolar burner (prod) DE", 0.0023843612900236147], ["Dishwasher (use) - DK", -0.0011518325236228278], ["Scalpel (prod) DE", 0.0005655878850193272], ["Transport", 1.635261673278506e-05], ["Waste", -5.756885540670884e-05], ["marginal heating grid", -0.0016606096100372887], ["market for electricity, high voltage", -2.743127397767167e-06]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.2105036308241675], ["Transport", 0.00038087301928867336], ["Waste", -0.007260797595702701], ["marginal heating grid", -0.05403592991356661], ["market for electricity, high voltage", -0.036505759175715156], ["erbe", 0.0019689460360834015]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.10081405160779826], ["erbe", 0.0019689460360834015], ["Remanufacturing DE", 0.02969752667881802], ["Transport", 0.0010625147959317791], ["Waste", -0.00602031259689717], ["marginal heating grid", -0.027017964958613284], ["market for electricity, high voltage", -0.018252879587857578]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.01686404760259382], ["Bipolar burner (prod) DE", 0.0027391788057260264], ["Dishwasher (use) - DK", 0.21515760491956815], ["Scalpel (prod) DE", 0.001418969315937325], ["Transport", 0.0001557929896634683], ["Waste", 0.00019547718257482402], ["marginal heating grid", -0.007950047756343144], ["market for electricity, high voltage", -0.00540235407161421]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", -0.04188596592598191], ["Transport", 3.981534377599031e-05], ["Waste", -4.4835508899238864e-05], ["marginal heating grid", -0.00017562303513900645], ["market for electricity, high voltage", -9.622316129383784e-05], ["erbe", 0.00037138901367539894]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", -0.014285282709193197], ["erbe", 0.00037138901367539894], ["Remanufacturing DE", 0.00029325122137091814], ["Transport", 0.00011107216768583086], ["Waste", -2.373752138413633e-05], ["marginal heating grid", -8.781151757217059e-05], ["market for electricity, high voltage", -4.811158064691892e-05]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.0002965053602764305], ["Bipolar burner (prod) DE", 2.6011686841008736e-05], ["Dishwasher (use) - DK", 0.0006360922272424508], ["Scalpel (prod) DE", 0.002560434762295338], ["Transport", 1.628614033086374e-05], ["Waste", 4.4771722169544e-06], ["marginal heating grid", -2.5838576655958074e-05], ["market for electricity, high voltage", -1.4239714470736933e-05]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 3.1623708960471428e-06], ["Transport", 4.101500207581304e-09], ["Waste", 7.59433070845262e-08], ["marginal heating grid", -8.749365178855315e-08], ["market for electricity, high voltage", -3.5050423688620864e-08], ["erbe", 8.702010013262805e-08]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 5.691369882312088e-07], ["erbe", 8.702010013262805e-08], ["Remanufacturing DE", 7.882216407238434e-08], ["Transport", 1.1441883345093026e-08], ["Waste", 7.881839801496722e-08], ["marginal heating grid", -4.374682589427102e-08], ["market for electricity, high voltage", -1.7525211844310432e-08]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 4.7714963169403366e-08], ["Bipolar burner (prod) DE", 1.3879690257216751e-08], ["Dishwasher (use) - DK", 3.6303783317318507e-07], ["Scalpel (prod) DE", 8.269532757953126e-09], ["Transport", 1.6776850735204796e-09], ["Waste", 8.895406646983889e-10], ["marginal heating grid", -1.2872522256255399e-08], ["market for electricity, high voltage", -5.186984284168736e-09]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.009479150001862714], ["Transport", 7.046592384038083e-06], ["Waste", 1.6555080448302415e-05], ["marginal heating grid", -0.00016604015769895928], ["market for electricity, high voltage", -2.7508858293943308e-05], ["erbe", 9.284490485619051e-05]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.004591644798391262], ["erbe", 9.284490485619051e-05], ["Remanufacturing DE", 9.276774394118946e-05], ["Transport", 1.9657755445087838e-05], ["Waste", 2.041227720207364e-05], ["marginal heating grid", -8.302007884951996e-05], ["market for electricity, high voltage", -1.3754429146971654e-05]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.00020963795005238722], ["Bipolar burner (prod) DE", 7.505294983830652e-05], ["Dishwasher (use) - DK", 0.0002622699725493933], ["Scalpel (prod) DE", 0.00015082314906719721], ["Transport", 2.8823509115104234e-06], ["Waste", 3.963032337426284e-06], ["marginal heating grid", -2.4428693759136836e-05], ["market for electricity, high voltage", -4.070935544564964e-06]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.008492452404010597], ["Transport", 1.4617259240420664e-05], ["Waste", 5.543066643514747e-05], ["marginal heating grid", -0.0003622686231928102], ["market for electricity, high voltage", -9.108435277566031e-05], ["erbe", 0.00019373024957536144]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.004007765056050113], ["erbe", 0.00019373024957536144], ["Remanufacturing DE", 0.0002103855349829359], ["Transport", 4.077751227338234e-05], ["Waste", 6.924906884596891e-05], ["marginal heating grid", -0.00018113431159641862], ["market for electricity, high voltage", -4.5542176387830156e-05]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.0003181866186194646], ["Bipolar burner (prod) DE", 0.00011374561636475346], ["Dishwasher (use) - DK", 0.0005578926404596333], ["Scalpel (prod) DE", 9.452488435001651e-05], ["Transport", 5.97907019438922e-06], ["Waste", 3.5148294245067042e-06], ["marginal heating grid", -5.3298848767486176e-05], ["market for electricity, high voltage", -1.3479240952351127e-05]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.008768906997631413], ["Transport", 1.6594221735862795e-05], ["Waste", 5.350248185623578e-05], ["marginal heating grid", -0.00038284856643518953], ["market for electricity, high voltage", -9.308446286476392e-05], ["erbe", 0.00021322885266393264]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.00413763778582307], ["erbe", 0.00021322885266393264], ["Remanufacturing DE", 0.00022544040336855843], ["Transport", 4.629260994634321e-05], ["Waste", 6.799507859583741e-05], ["marginal heating grid", -0.00019142428321760867], ["market for electricity, high voltage", -4.654223143238196e-05]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.00034266591443511826], ["Bipolar burner (prod) DE", 0.0001226407335679011], ["Dishwasher (use) - DK", 0.00057772888219192], ["Scalpel (prod) DE", 9.963035979470777e-05], ["Transport", 6.787730514186848e-06], ["Waste", 3.7229815808947703e-06], ["marginal heating grid", -5.632667732423958e-05], ["market for electricity, high voltage", -1.3775229944979313e-05]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.017183667963708835], ["Transport", 1.3643310382892691e-05], ["Waste", 0.0004840761415572034], ["marginal heating grid", -0.00047935345373705917], ["market for electricity, high voltage", -8.102697277740707e-05], ["erbe", 0.0004354443458863415]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.006849868124472102], ["erbe", 0.0004354443458863415], ["Remanufacturing DE", 0.0005208413367777552], ["Transport", 3.8060504191476985e-05], ["Waste", 0.0004983730415622475], ["marginal heating grid", -0.0002396767268685848], ["market for electricity, high voltage", -4.0513486388703534e-05]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.00050314533497959], ["Bipolar burner (prod) DE", 0.0007218761707038871], ["Dishwasher (use) - DK", 0.003502276673167414], ["Scalpel (prod) DE", 0.00018008860278806937], ["Transport", 5.58068438969563e-06], ["Waste", 2.9005553742863094e-05], ["marginal heating grid", -7.05249795351731e-05], ["market for electricity, high voltage", -1.1990885991102152e-05]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 1.9451248543312664e-08], ["Transport", 3.692304290340566e-11], ["Waste", 1.1907824913738393e-09], ["marginal heating grid", -1.5421505427572035e-09], ["market for electricity, high voltage", -6.051776200711805e-10], ["erbe", 5.475881521516752e-10]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 9.34694300087397e-09], ["erbe", 5.475881521516752e-10], ["Remanufacturing DE", 8.401264846724101e-10], ["Transport", 1.0300356656487296e-10], ["Waste", 1.3455831292844273e-09], ["marginal heating grid", -7.71075271394885e-10], ["market for electricity, high voltage", -3.0258881003559023e-10]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 1.0285104732355619e-09], ["Bipolar burner (prod) DE", 2.5399663714233244e-10], ["Dishwasher (use) - DK", 3.659448262061686e-09], ["Scalpel (prod) DE", 2.642279759828031e-10], ["Transport", 1.5103068344158015e-11], ["Waste", 2.0792311770682083e-11], ["marginal heating grid", -2.2688922882052948e-10], ["market for electricity, high voltage", -8.955802738150805e-11]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 1.3286877754842911e-05], ["Transport", 1.530961925420887e-08], ["Waste", 5.619134215521335e-07], ["marginal heating grid", -4.4608658984028295e-07], ["market for electricity, high voltage", -1.108183974600807e-07], ["erbe", 2.480948849802798e-07]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 6.726897973464541e-06], ["erbe", 2.480948849802798e-07], ["Remanufacturing DE", 2.569173913623242e-07], ["Transport", 4.270897688624063e-08], ["Waste", 6.067348065827113e-07], ["marginal heating grid", -2.2304329492017229e-07], ["market for electricity, high voltage", -5.540919873004035e-08]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 4.129587297324633e-07], ["Bipolar burner (prod) DE", 1.2611679918946047e-07], ["Dishwasher (use) - DK", 7.482905480719234e-07], ["Scalpel (prod) DE", 1.7806415276832804e-07], ["Transport", 6.262274388427491e-09], ["Waste", 1.0094391448504076e-08], ["marginal heating grid", -6.563058506019625e-08], ["market for electricity, high voltage", -1.639961020524467e-08]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.2261517424936987], ["Transport", 0.0012339467108585258], ["Waste", -0.00012786992775163926], ["marginal heating grid", -0.016975226321806144], ["market for electricity, high voltage", -0.0006065841339330884], ["erbe", 0.016065681328172283]]</t>
-  </si>
-  <si>
-    <t>[["Diathermy", 0.09882208338617243], ["erbe", 0.016065681328172283], ["Remanufacturing DE", 0.013413761947450732], ["Transport", 0.0034423195428856224], ["Waste", 0.00017930474705875327], ["marginal heating grid", -0.008487613160904092], ["market for electricity, high voltage", -0.0003032920669665442]]</t>
-  </si>
-  <si>
-    <t>[["Autoclave (use) DK", 0.021233241421315788], ["Bipolar burner (prod) DE", 0.013547169843528498], ["Dishwasher (use) - DK", 0.004934718284916485], ["Scalpel (prod) DE", 0.005152377735126872], ["Transport", 0.0005047357975259237], ["Waste", 0.00015758609064746656], ["marginal heating grid", -0.002497483807860451], ["market for electricity, high voltage", -8.976617223482518e-05]]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,201 +505,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Brighway/Results/Lobster - CONSQ_recipe.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -77,6 +77,195 @@
   </si>
   <si>
     <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002069696056398221], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094580646197e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551885141672e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207408364119], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.9424096073932455e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723199769646e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.02050901714773526], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404844397911], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410065761562]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002069696056398221], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.189191416859919e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002142350431228942], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.80775942570836e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001325103704182056], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 3.915882175314984e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.366861599884823e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0005112050328807811], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.716202422198956e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002942949075305344]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.86170306298095e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.311680702144928e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204673004975e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.190375338436383e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760252383762e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.84679660445287e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342434518008e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036227174126e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.061852162439963e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606079428148], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766940017136e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1432524484144056], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009325515434538526], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.08554539410238576], ["'marginal heating grid' (megajoule, GLO, None)", -0.321571709779058], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4270857257568958], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0032173271795943796], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 2.114798868027516], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0878138784946372], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1673284721271688]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1432524484144056], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.026015227193632938], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1644467878497234], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.04277269705119288], ["'marginal heating grid' (megajoule, GLO, None)", -0.1607858548895286], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.47612660431090775], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0016086635897971898], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.08366423606358439], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0439069392473186], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.9953245369137518]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.06551939661873293], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08138351721865625], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003814525723658258], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035837599641723806], ["'marginal heating grid' (megajoule, GLO, None)", -0.013187970898078154], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020618130591984193], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001447673711586071], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.015509725751329823], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004592144233444331], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01502606675786426], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004617597383024384]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.03686065817587907], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509249348455834], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035374321254918214], ["'marginal heating grid' (megajoule, GLO, None)", -0.007162842481978925], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035046468899407365], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045990398681e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6741814191877433], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564036454333], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158454766]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.03686065817587907], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0007116270644802218], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0242682121500913], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017687160627459107], ["'marginal heating grid' (megajoule, GLO, None)", -0.0035814212409894528], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.03551489294522951], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0125229951993404e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01271280579227383], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0009190782018227167], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2248738873827775]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.001983859419678765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0034631998746206564], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349555683579], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392394337268], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002937551884298491], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584547928295], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450137718219], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0003608699446093439], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001903251328730217], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110549192088], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605185374]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0448357187211537], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874697166967], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313158973829], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900759300749], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04820510443510289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172160899796e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9073947001769319], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909549658066], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077171308]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0448357187211537], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012039920106822516], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02959405929183849], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0021836565794869146], ["'marginal heating grid' (megajoule, GLO, None)", -0.004590950379650362], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.04917423515046999], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.802586080449898e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01762636038585654], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.001227454774829033], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2877411312722148]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002311317880048628], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0042216155079845535], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732030141519], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0001829601957459112], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037655874668172023], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054074450546], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265909965], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224847660157], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002609367440933059], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296464944], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248532507]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.325825158994782], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459857534308], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216836714112778], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355660969125], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.908442441164732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985624892485], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 142.5049592395001], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.2276549680986919], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646472187304]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.325825158994782], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.49453984500760945], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.983916377511453], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.1108418357056389], ["'marginal heating grid' (megajoule, GLO, None)", -0.36026778304845525], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0596299696603344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.005418492812446243], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.677823236093652], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.11382748404934595], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 2.546468020243017]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.2252992816864935], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.24271409960333384], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272287989093], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701158783166], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549869555518908], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.05210959956542514], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922925970492], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276509069969723], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5686412289156503], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110622004859], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113299929964]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.04560854643123061], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109149814385], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469365329478], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222216549982], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00015856343281243795], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396235820459], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.5410164582430257], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.039286400370077315], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828454099175]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.04560854643123061], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.008172405327559753], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.03710070236307969], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0008912234682664739], ["'marginal heating grid' (megajoule, GLO, None)", -0.024281111082749843], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.000987298390862346], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00019086981179102294], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.03461414227049588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019643200185038658], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2496764438308534]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002231940392843092], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0021719241568000786], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924505756626], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467219055374411e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843128882264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120168859323], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341654142947], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392660350875], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001095786629865357], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0034329193161314], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.00111952909687468]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.818650113101818e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204030692221e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.914120965056034e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.788840872700373e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.600136851699164e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782197989474e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001890982889241434], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.099117816000005e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860519699954e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.818650113101818e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 2.572144181357852e-06], ["'remanufacturing - CONSQ' (unit, GLO, None)", 1.587294483358675e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.457060482528017e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.3944204363501828e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0182434959841595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.712391098994737e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.877930259849977e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.0495589080000026e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.0008497523123631206]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.219754319209325e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.728628093891124e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448956289616e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208150017783293e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.143730967310937e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356845301213e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.58611451315718e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.698054189562318e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.087117608129836e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746602707206e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407246956895e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.567041750695928e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977545004983986e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1133369856265497e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778141272062e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.0324420854910215e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264413691084e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.539097603533262e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.72715935873183e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926579933e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.567041750695928e-06], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 6.967942014623896e-07], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.1395937588031056e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5566684928132748e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.2282889070636e-06], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.1299016310482815e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8149632206845542e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.548549463289967e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.363579679365915e-06], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.56499729633497e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 2.1692625296693617e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.6602061440711684e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860248010308e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.304272726911709e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666314345004e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252798909517e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349726529e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581882537017e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.186793961367426e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082120485402e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295539009058e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.006679889242236973], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702790571], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010861853519675449], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283267042742], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007849442021127327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875980857426e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1955363775454057], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00203702359113404], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598057159]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.006679889242236973], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0003414057247029163], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.005187674718503795], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005430926759837724], ["'marginal heating grid' (megajoule, GLO, None)", -0.0013595641633521336], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.007459795477102267], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.787437990428713e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.007025897990285796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00101851179556702], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04537671027530846]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.000418871305882712], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0010036488171905119], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916367216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.550364889771678e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411691455714], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.000531699784508091], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467595989659], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00041689141459805176], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.000602394619114396], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242759046064], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955009468325]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1467455547589853], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0077777954038819866], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716147362856], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724462188917], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5608448734891134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114641089704], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 16.59090690811163], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.050129570869011916], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613420709832]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1467455547589853], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.02169757971227872], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1201611246801622], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017609858073681428], ["'marginal heating grid' (megajoule, GLO, None)", -0.05401362231094444], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.5526754238247321], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017669057320544852], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.1658806710354916], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.025064785434505958], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.702444635111985]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.01119026669099142], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03120299188297309], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435190977686], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623554293078], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303148407812], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155722189106], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292782231365], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00868648440412468], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05211590915166358], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.110995864923599], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819497021106]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004391135304340684], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786115345924e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095839673291298e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814224009292], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00024938155552373245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538497901346e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1967138476253886], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004890718903], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464182967628]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004391135304340684], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00011152553957208868], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0007286089983146754], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.047919836645649e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.005509407112004631], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0002635811664768225], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.287269248950673e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.001075232091483814], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0013588002445359452], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.1021988106281972]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018323512533190332], ["'dishwasher - CONSQ' (unit, GLO, None)", 4.279825636451156e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616733860435e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580904433218917e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923677005236], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694664858208e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186048915899e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547215589329], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0007589446962757312], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868935352285e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991490379816]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.001968946034787545], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087301930240884], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563820375881271], ["'marginal heating grid' (megajoule, GLO, None)", -0.05275177186002944], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.007260797621957418], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025186576623], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1793857929640484], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062694315345134], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136619436102]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.001968946034787545], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00106251479596386], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02969752667298829], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017819101879406354], ["'marginal heating grid' (megajoule, GLO, None)", -0.026375885930014647], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0060203125438594175], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014759012593288311], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000750068309718051], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.009531347157672567], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04134644880573465]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.033357946297844235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.034992920915687314], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001557929896502628], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929940900498897], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163401850834803], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204441957687172], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65975520421844e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409587899722305], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0008459568174122121], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990749609936], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784031098624882]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0003713890135777492], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534377913303e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642827487145e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493724902661], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -4.483550652137913e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785080621756492e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04832067459914588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701024091269781e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829516859943]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0003713890135777492], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001110721676941526], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002932512215503435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.6968214137435724e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.572468624513282e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -2.373751940281561e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.892540310878246e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.003023914758429972], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.8505120456348906e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.008313541145491732]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012567926754792063], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.629501862339959e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140332715598e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.9352862227265845e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.03130675409507e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249852645124e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268139626326], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809678870932314e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002255722433634215], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302376388], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810883018274e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 8.702010012858284e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500207583079e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4217454162173815e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437461866171e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 7.594330709376935e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338978917476e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.012114027059998e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361220823e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006732815924e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 8.702010012858284e-08], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1441883345112593e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 7.882216407895335e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.7108727081086908e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.2707187309330745e-08], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 7.881839802257623e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2113169489458738e-10], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.446003366407962e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.503401806104115e-09], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.467492803700577e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -2.5910771056324868e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.9329940814389547e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850735210374e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745147767363e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.502927193198679e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036512918743e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481039578967e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517451536934e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.921747985327906e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286111135711e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256837991232e-09]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 9.284490484288655e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592384176885e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.685511325316155e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942312886034], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.655508049897572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407854194487e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.008465541858917376], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506511345476], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913476026941]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 9.284490484288655e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.9657755445545175e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 9.276774399233396e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3427556626580776e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.104711564430148e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.0412277246737467e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0742039270972435e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0002071956738013471], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 5.118753255672738e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002320041143674375]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.748811556039522e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.106485307320895e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350911567306e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433845077275e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.6476432471289036e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051415241021e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857102479707e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291499463574e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.289262690870447e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.000120565067856513], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117931910422e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.00019373024957315], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259240481588e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974298758546e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365934854369524], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.5430666589059595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454301239254e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007021152966851787], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384131504853], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160851394542]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.00019373024957315], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.077751227363725e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00021038553506179435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.445987149379273e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00017682967427184716], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.924906897834017e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.095227150619627e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0001843080425697271], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.330192065752426e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002154571289781992]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.533404340284098e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.699075164313112e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070194414146e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121829025735e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.450391640369128e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566019319788925e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076112194e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987108132407e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.822782826079593e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748269548926e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592229927e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002132288526638501], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6594221735908755e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.08723206768521e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502116614167], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.3502482017765224e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437080635149e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.0072041929720684], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416679382304], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.000394338234954416]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002132288526638501], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.629260994656057e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00022544040345164336], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.543616033842605e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018687510583070783], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.799507873467332e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1752185403175747e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000197169117477208], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.105708339691152e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002213695554226876]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.690682827723835e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.894504859908997e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730514205653e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213206658685e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862385431482e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109899140379e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.08050155465082e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242083620995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.880915165142973e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771324633547e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728032596e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004354443458257128], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310383307661e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910137553682265e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167073929974], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004840761417898636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701470015452e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01100229843128134], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805796530133], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874627086288]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004354443458257128], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.806050419272405e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.000520841336868328], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.955068776841133e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00023398083536964925], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00049837304176089], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.896350735007726e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0009464373135431441], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0006392402898265067], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.005859818076640715]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00010326448776612292], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.135301094651262e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684389865708e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3138001845025533e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566631797736e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597530906727e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.76784779611873e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728436644458], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.873778853494523e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767022481711e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181713646e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 5.475881521040711e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.692304290374757e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.907956394107946e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.5055015016968668e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.1907824913554327e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.7672419278066125e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.624779485954121e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.936296829477741e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.935008296424061e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 5.475881521040711e-10], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0300356656591139e-10], ["'remanufacturing - CONSQ' (unit, GLO, None)", 8.40126484738488e-10], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.953978197053973e-10], ["'marginal heating grid' (megajoule, GLO, None)", -7.527507508484313e-10], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.3455831299405781e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8836209639033063e-11], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 4.467504148212031e-10], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.4681484147388706e-10], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.847776843313269e-09]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 5.100243095491537e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.740361465735772e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5103068344130866e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4750248470349614e-11], ["'marginal heating grid' (megajoule, GLO, None)", -6.174209169405062e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.464136842877876e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.403369204699211e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.490217962553474e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.85866318308428e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.754642806959737e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.930712836833625e-11]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.480948849403086e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.530961925438572e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.0818481023523878e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.35485390254059e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.61913421664475e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.74213192829524e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.17438991496881e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.670539074431528e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.42507791524103e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.480948849403086e-07], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.270897688684554e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.5691739144583787e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.409240511761939e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.1774269512702895e-07], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.06734806680131e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.37106596414762e-09], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.712538957620515e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.35269537215764e-08], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.393282879788907e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.858820576754194e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.057921655366954e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.262274388499573e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.532194815639085e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.7859682548426573e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6583290538993257e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013772547880148e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.087874992624398e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.257777988942284e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.30071617143119e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.000725056733894e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01606568132788449], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467108451222], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921687276314708], ["'marginal heating grid' (megajoule, GLO, None)", -0.0165718119054035], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0001278699240409968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633846398415], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1038974327029888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01497277433527767], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598893024]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01606568132788449], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0034423195428494946], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.013413761948552035], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0002960843638157354], ["'marginal heating grid' (megajoule, GLO, None)", -0.00828590595270173], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00017930475019074563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.344816923199207e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01307540799446512], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.007486387167638835], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.05168792979329954]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00041936375153362235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00064202282351914], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357975205731], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771363828207e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262435120441], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042447911055], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333294756017], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270329445913], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0002493563734904014], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530635915279], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359668850061]]</t>
   </si>
 </sst>
 </file>
@@ -434,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +694,201 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Brighway/Results/Lobster - CONSQ_recipe.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe.xlsx
@@ -79,193 +79,193 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002069696056398221], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094580646197e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551885141672e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207408364119], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.9424096073932455e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723199769646e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.02050901714773526], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404844397911], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410065761562]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002069696056398221], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.189191416859919e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002142350431228942], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.80775942570836e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001325103704182056], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 3.915882175314984e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.366861599884823e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0005112050328807811], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.716202422198956e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002942949075305344]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.86170306298095e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.311680702144928e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204673004975e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.190375338436383e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760252383762e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.84679660445287e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342434518008e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036227174126e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.061852162439963e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606079428148], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766940017136e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1432524484144056], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009325515434538526], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.08554539410238576], ["'marginal heating grid' (megajoule, GLO, None)", -0.321571709779058], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4270857257568958], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0032173271795943796], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 2.114798868027516], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0878138784946372], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1673284721271688]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1432524484144056], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.026015227193632938], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1644467878497234], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.04277269705119288], ["'marginal heating grid' (megajoule, GLO, None)", -0.1607858548895286], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.47612660431090775], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0016086635897971898], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.08366423606358439], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0439069392473186], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.9953245369137518]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.06551939661873293], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08138351721865625], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003814525723658258], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035837599641723806], ["'marginal heating grid' (megajoule, GLO, None)", -0.013187970898078154], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020618130591984193], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001447673711586071], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.015509725751329823], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004592144233444331], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01502606675786426], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004617597383024384]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.03686065817587907], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509249348455834], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035374321254918214], ["'marginal heating grid' (megajoule, GLO, None)", -0.007162842481978925], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035046468899407365], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045990398681e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6741814191877433], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564036454333], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158454766]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.03686065817587907], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0007116270644802218], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0242682121500913], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017687160627459107], ["'marginal heating grid' (megajoule, GLO, None)", -0.0035814212409894528], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.03551489294522951], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0125229951993404e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01271280579227383], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0009190782018227167], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2248738873827775]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.001983859419678765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0034631998746206564], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349555683579], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392394337268], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002937551884298491], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584547928295], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450137718219], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0003608699446093439], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001903251328730217], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110549192088], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605185374]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0448357187211537], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874697166967], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313158973829], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900759300749], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04820510443510289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172160899796e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9073947001769319], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909549658066], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077171308]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0448357187211537], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012039920106822516], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02959405929183849], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0021836565794869146], ["'marginal heating grid' (megajoule, GLO, None)", -0.004590950379650362], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.04917423515046999], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.802586080449898e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01762636038585654], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.001227454774829033], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2877411312722148]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002311317880048628], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0042216155079845535], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732030141519], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0001829601957459112], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037655874668172023], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054074450546], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265909965], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224847660157], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002609367440933059], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296464944], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248532507]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.325825158994782], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459857534308], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216836714112778], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355660969125], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.908442441164732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985624892485], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 142.5049592395001], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.2276549680986919], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646472187304]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.325825158994782], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.49453984500760945], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.983916377511453], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.1108418357056389], ["'marginal heating grid' (megajoule, GLO, None)", -0.36026778304845525], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0596299696603344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.005418492812446243], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.677823236093652], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.11382748404934595], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 2.546468020243017]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.2252992816864935], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.24271409960333384], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272287989093], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701158783166], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549869555518908], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.05210959956542514], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922925970492], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276509069969723], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5686412289156503], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110622004859], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113299929964]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.04560854643123061], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109149814385], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469365329478], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222216549982], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00015856343281243795], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396235820459], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.5410164582430257], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.039286400370077315], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828454099175]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.04560854643123061], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.008172405327559753], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.03710070236307969], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0008912234682664739], ["'marginal heating grid' (megajoule, GLO, None)", -0.024281111082749843], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.000987298390862346], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00019086981179102294], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.03461414227049588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019643200185038658], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2496764438308534]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002231940392843092], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0021719241568000786], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924505756626], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467219055374411e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843128882264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120168859323], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341654142947], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392660350875], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001095786629865357], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0034329193161314], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.00111952909687468]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.818650113101818e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204030692221e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.914120965056034e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.788840872700373e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.600136851699164e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782197989474e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001890982889241434], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.099117816000005e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860519699954e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.818650113101818e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 2.572144181357852e-06], ["'remanufacturing - CONSQ' (unit, GLO, None)", 1.587294483358675e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.457060482528017e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.3944204363501828e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0182434959841595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.712391098994737e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.877930259849977e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.0495589080000026e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.0008497523123631206]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.219754319209325e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.728628093891124e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448956289616e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208150017783293e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.143730967310937e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356845301213e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.58611451315718e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.698054189562318e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.087117608129836e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746602707206e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407246956895e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.567041750695928e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977545004983986e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1133369856265497e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778141272062e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.0324420854910215e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264413691084e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.539097603533262e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.72715935873183e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926579933e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.567041750695928e-06], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 6.967942014623896e-07], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.1395937588031056e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5566684928132748e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.2282889070636e-06], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.1299016310482815e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8149632206845542e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.548549463289967e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.363579679365915e-06], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.56499729633497e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 2.1692625296693617e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.6602061440711684e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860248010308e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.304272726911709e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666314345004e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252798909517e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349726529e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581882537017e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.186793961367426e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082120485402e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295539009058e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.006679889242236973], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702790571], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010861853519675449], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283267042742], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007849442021127327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875980857426e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1955363775454057], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00203702359113404], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598057159]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.006679889242236973], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0003414057247029163], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.005187674718503795], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005430926759837724], ["'marginal heating grid' (megajoule, GLO, None)", -0.0013595641633521336], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.007459795477102267], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.787437990428713e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.007025897990285796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00101851179556702], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04537671027530846]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.000418871305882712], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0010036488171905119], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916367216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.550364889771678e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411691455714], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.000531699784508091], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467595989659], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00041689141459805176], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.000602394619114396], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242759046064], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955009468325]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1467455547589853], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0077777954038819866], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716147362856], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724462188917], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5608448734891134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114641089704], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 16.59090690811163], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.050129570869011916], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613420709832]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1467455547589853], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.02169757971227872], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1201611246801622], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017609858073681428], ["'marginal heating grid' (megajoule, GLO, None)", -0.05401362231094444], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.5526754238247321], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017669057320544852], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.1658806710354916], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.025064785434505958], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.702444635111985]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.01119026669099142], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03120299188297309], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435190977686], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623554293078], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303148407812], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155722189106], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292782231365], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00868648440412468], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05211590915166358], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.110995864923599], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819497021106]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004391135304340684], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786115345924e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095839673291298e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814224009292], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00024938155552373245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538497901346e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1967138476253886], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004890718903], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464182967628]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004391135304340684], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00011152553957208868], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0007286089983146754], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.047919836645649e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.005509407112004631], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0002635811664768225], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.287269248950673e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.001075232091483814], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0013588002445359452], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.1021988106281972]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018323512533190332], ["'dishwasher - CONSQ' (unit, GLO, None)", 4.279825636451156e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616733860435e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580904433218917e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923677005236], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694664858208e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186048915899e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547215589329], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0007589446962757312], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868935352285e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991490379816]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.001968946034787545], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087301930240884], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563820375881271], ["'marginal heating grid' (megajoule, GLO, None)", -0.05275177186002944], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.007260797621957418], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025186576623], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1793857929640484], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062694315345134], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136619436102]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.001968946034787545], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00106251479596386], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02969752667298829], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017819101879406354], ["'marginal heating grid' (megajoule, GLO, None)", -0.026375885930014647], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0060203125438594175], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014759012593288311], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000750068309718051], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.009531347157672567], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04134644880573465]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.033357946297844235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.034992920915687314], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001557929896502628], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929940900498897], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163401850834803], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204441957687172], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65975520421844e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409587899722305], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0008459568174122121], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990749609936], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784031098624882]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0003713890135777492], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534377913303e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642827487145e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493724902661], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -4.483550652137913e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785080621756492e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04832067459914588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701024091269781e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829516859943]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0003713890135777492], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001110721676941526], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002932512215503435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.6968214137435724e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.572468624513282e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -2.373751940281561e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.892540310878246e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.003023914758429972], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.8505120456348906e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.008313541145491732]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012567926754792063], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.629501862339959e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140332715598e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.9352862227265845e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.03130675409507e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249852645124e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268139626326], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809678870932314e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002255722433634215], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302376388], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810883018274e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 8.702010012858284e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500207583079e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4217454162173815e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437461866171e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 7.594330709376935e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338978917476e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.012114027059998e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361220823e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006732815924e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 8.702010012858284e-08], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1441883345112593e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 7.882216407895335e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.7108727081086908e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.2707187309330745e-08], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 7.881839802257623e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2113169489458738e-10], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.446003366407962e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.503401806104115e-09], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.467492803700577e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -2.5910771056324868e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.9329940814389547e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850735210374e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745147767363e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.502927193198679e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036512918743e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481039578967e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517451536934e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.921747985327906e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286111135711e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256837991232e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 9.284490484288655e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592384176885e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.685511325316155e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942312886034], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.655508049897572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407854194487e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.008465541858917376], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506511345476], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913476026941]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 9.284490484288655e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.9657755445545175e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 9.276774399233396e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3427556626580776e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.104711564430148e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.0412277246737467e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0742039270972435e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0002071956738013471], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 5.118753255672738e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002320041143674375]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.748811556039522e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.106485307320895e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350911567306e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433845077275e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.6476432471289036e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051415241021e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857102479707e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291499463574e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.289262690870447e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.000120565067856513], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117931910422e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.00019373024957315], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259240481588e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974298758546e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365934854369524], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.5430666589059595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454301239254e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007021152966851787], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384131504853], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160851394542]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.00019373024957315], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.077751227363725e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00021038553506179435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.445987149379273e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00017682967427184716], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.924906897834017e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.095227150619627e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0001843080425697271], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.330192065752426e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002154571289781992]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.533404340284098e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.699075164313112e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070194414146e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121829025735e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.450391640369128e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566019319788925e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076112194e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987108132407e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.822782826079593e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748269548926e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592229927e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002132288526638501], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6594221735908755e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.08723206768521e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502116614167], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.3502482017765224e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437080635149e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.0072041929720684], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416679382304], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.000394338234954416]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002132288526638501], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.629260994656057e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00022544040345164336], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.543616033842605e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018687510583070783], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.799507873467332e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1752185403175747e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000197169117477208], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.105708339691152e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002213695554226876]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.690682827723835e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.894504859908997e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730514205653e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213206658685e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862385431482e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109899140379e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.08050155465082e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242083620995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.880915165142973e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771324633547e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728032596e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004354443458257128], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310383307661e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910137553682265e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167073929974], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004840761417898636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701470015452e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01100229843128134], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805796530133], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874627086288]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004354443458257128], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.806050419272405e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.000520841336868328], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.955068776841133e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00023398083536964925], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00049837304176089], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.896350735007726e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0009464373135431441], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0006392402898265067], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.005859818076640715]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00010326448776612292], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.135301094651262e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684389865708e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3138001845025533e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566631797736e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597530906727e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.76784779611873e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728436644458], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.873778853494523e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767022481711e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181713646e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 5.475881521040711e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.692304290374757e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.907956394107946e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.5055015016968668e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.1907824913554327e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.7672419278066125e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.624779485954121e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.936296829477741e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.935008296424061e-10]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 5.475881521040711e-10], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0300356656591139e-10], ["'remanufacturing - CONSQ' (unit, GLO, None)", 8.40126484738488e-10], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.953978197053973e-10], ["'marginal heating grid' (megajoule, GLO, None)", -7.527507508484313e-10], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.3455831299405781e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8836209639033063e-11], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 4.467504148212031e-10], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.4681484147388706e-10], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.847776843313269e-09]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 5.100243095491537e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.740361465735772e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5103068344130866e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4750248470349614e-11], ["'marginal heating grid' (megajoule, GLO, None)", -6.174209169405062e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.464136842877876e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.403369204699211e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.490217962553474e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.85866318308428e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.754642806959737e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.930712836833625e-11]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.480948849403086e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.530961925438572e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.0818481023523878e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.35485390254059e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.61913421664475e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.74213192829524e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.17438991496881e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.670539074431528e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.42507791524103e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.480948849403086e-07], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.270897688684554e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.5691739144583787e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.409240511761939e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.1774269512702895e-07], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.06734806680131e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.37106596414762e-09], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.712538957620515e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.35269537215764e-08], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.393282879788907e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.858820576754194e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.057921655366954e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.262274388499573e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.532194815639085e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.7859682548426573e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6583290538993257e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013772547880148e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.087874992624398e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.257777988942284e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.30071617143119e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.000725056733894e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01606568132788449], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467108451222], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921687276314708], ["'marginal heating grid' (megajoule, GLO, None)", -0.0165718119054035], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0001278699240409968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633846398415], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1038974327029888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01497277433527767], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598893024]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01606568132788449], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0034423195428494946], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.013413761948552035], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0002960843638157354], ["'marginal heating grid' (megajoule, GLO, None)", -0.00828590595270173], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00017930475019074563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.344816923199207e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01307540799446512], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.007486387167638835], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.05168792979329954]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00041936375153362235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00064202282351914], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357975205731], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771363828207e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262435120441], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042447911055], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333294756017], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270329445913], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0002493563734904014], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530635915279], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359668850061]]</t>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094580646197e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551885141672e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207408364119], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.9424096073932455e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723199769646e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.02050901714773526], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404844397911], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410065761562]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.189191416859919e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002142350431228942], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.80775942570836e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001325103704182056], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 3.915882175314984e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.366861599884823e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0005112050328807811], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.716202422198956e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002942949075305344]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.86170306298095e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.311680702144928e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204673004975e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.190375338436383e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760252383762e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.84679660445287e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342434518008e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036227174126e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.061852162439963e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606079428148], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766940017136e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009325515434538526], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.08554539410238576], ["'marginal heating grid' (megajoule, GLO, None)", -0.321571709779058], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4270857257568958], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0032173271795943796], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 2.114798868027516], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0878138784946372], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1673284721271688]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.026015227193632938], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1644467878497234], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.04277269705119288], ["'marginal heating grid' (megajoule, GLO, None)", -0.1607858548895286], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.47612660431090775], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0016086635897971898], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.08366423606358439], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0439069392473186], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.9953245369137518]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.06551939661873293], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08138351721865625], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003814525723658258], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035837599641723806], ["'marginal heating grid' (megajoule, GLO, None)", -0.013187970898078154], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020618130591984193], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001447673711586071], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.015509725751329823], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004592144233444331], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01502606675786426], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004617597383024384], ["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509249348455834], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035374321254918214], ["'marginal heating grid' (megajoule, GLO, None)", -0.007162842481978925], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035046468899407365], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045990398681e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6741814191877433], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564036454333], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158454766]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0007116270644802218], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0242682121500913], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017687160627459107], ["'marginal heating grid' (megajoule, GLO, None)", -0.0035814212409894528], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.03551489294522951], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0125229951993404e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01271280579227383], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0009190782018227167], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2248738873827775]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.001983859419678765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0034631998746206564], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349555683579], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392394337268], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002937551884298491], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584547928295], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450137718219], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0003608699446093439], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001903251328730217], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110549192088], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605185374], ["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874697166967], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313158973829], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900759300749], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04820510443510289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172160899796e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9073947001769319], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909549658066], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077171308]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012039920106822516], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02959405929183849], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0021836565794869146], ["'marginal heating grid' (megajoule, GLO, None)", -0.004590950379650362], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.04917423515046999], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.802586080449898e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01762636038585654], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.001227454774829033], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2877411312722148]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002311317880048628], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0042216155079845535], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732030141519], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0001829601957459112], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037655874668172023], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054074450546], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265909965], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224847660157], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002609367440933059], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296464944], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248532507], ["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459857534308], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216836714112778], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355660969125], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.908442441164732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985624892485], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 142.5049592395001], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.2276549680986919], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646472187304]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.49453984500760945], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.983916377511453], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.1108418357056389], ["'marginal heating grid' (megajoule, GLO, None)", -0.36026778304845525], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0596299696603344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.005418492812446243], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.677823236093652], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.11382748404934595], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 2.546468020243017]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.2252992816864935], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.24271409960333384], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272287989093], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701158783166], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549869555518908], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.05210959956542514], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922925970492], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276509069969723], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5686412289156503], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110622004859], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113299929964], ["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109149814385], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469365329478], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222216549982], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00015856343281243795], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396235820459], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.5410164582430257], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.039286400370077315], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828454099175]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.008172405327559753], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.03710070236307969], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0008912234682664739], ["'marginal heating grid' (megajoule, GLO, None)", -0.024281111082749843], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.000987298390862346], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00019086981179102294], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.03461414227049588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019643200185038658], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2496764438308534]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002231940392843092], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0021719241568000786], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924505756626], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467219055374411e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843128882264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120168859323], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341654142947], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392660350875], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001095786629865357], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0034329193161314], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.00111952909687468], ["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204030692221e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.914120965056034e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.788840872700373e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.600136851699164e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782197989474e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001890982889241434], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.099117816000005e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860519699954e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 2.572144181357852e-06], ["'remanufacturing - CONSQ' (unit, GLO, None)", 1.587294483358675e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.457060482528017e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.3944204363501828e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0182434959841595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.712391098994737e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.877930259849977e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.0495589080000026e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.0008497523123631206]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.219754319209325e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.728628093891124e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448956289616e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208150017783293e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.143730967310937e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356845301213e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.58611451315718e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.698054189562318e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.087117608129836e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746602707206e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407246956895e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977545004983986e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1133369856265497e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778141272062e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.0324420854910215e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264413691084e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.539097603533262e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.72715935873183e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926579933e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 6.967942014623896e-07], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.1395937588031056e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5566684928132748e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.2282889070636e-06], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.1299016310482815e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8149632206845542e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.548549463289967e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.363579679365915e-06], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.56499729633497e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 2.1692625296693617e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.6602061440711684e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860248010308e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.304272726911709e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666314345004e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252798909517e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349726529e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581882537017e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.186793961367426e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082120485402e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295539009058e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702790571], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010861853519675449], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283267042742], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007849442021127327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875980857426e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1955363775454057], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00203702359113404], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598057159]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0003414057247029163], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.005187674718503795], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005430926759837724], ["'marginal heating grid' (megajoule, GLO, None)", -0.0013595641633521336], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.007459795477102267], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.787437990428713e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.007025897990285796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00101851179556702], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04537671027530846]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.000418871305882712], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0010036488171905119], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916367216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.550364889771678e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411691455714], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.000531699784508091], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467595989659], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00041689141459805176], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.000602394619114396], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242759046064], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955009468325], ["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0077777954038819866], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716147362856], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724462188917], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5608448734891134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114641089704], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 16.59090690811163], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.050129570869011916], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613420709832]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.02169757971227872], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1201611246801622], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017609858073681428], ["'marginal heating grid' (megajoule, GLO, None)", -0.05401362231094444], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.5526754238247321], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017669057320544852], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.1658806710354916], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.025064785434505958], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.702444635111985]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.01119026669099142], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03120299188297309], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435190977686], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623554293078], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303148407812], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155722189106], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292782231365], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00868648440412468], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05211590915166358], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.110995864923599], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819497021106], ["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786115345924e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095839673291298e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814224009292], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00024938155552373245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538497901346e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1967138476253886], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004890718903], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464182967628]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00011152553957208868], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0007286089983146754], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.047919836645649e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.005509407112004631], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0002635811664768225], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.287269248950673e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.001075232091483814], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0013588002445359452], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.1021988106281972]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018323512533190332], ["'dishwasher - CONSQ' (unit, GLO, None)", 4.279825636451156e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616733860435e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580904433218917e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923677005236], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694664858208e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186048915899e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547215589329], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0007589446962757312], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868935352285e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991490379816], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087301930240884], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563820375881271], ["'marginal heating grid' (megajoule, GLO, None)", -0.05275177186002944], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.007260797621957418], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025186576623], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1793857929640484], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062694315345134], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136619436102]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00106251479596386], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02969752667298829], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017819101879406354], ["'marginal heating grid' (megajoule, GLO, None)", -0.026375885930014647], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0060203125438594175], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014759012593288311], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000750068309718051], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.009531347157672567], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04134644880573465]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.033357946297844235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.034992920915687314], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001557929896502628], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929940900498897], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163401850834803], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204441957687172], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65975520421844e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409587899722305], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0008459568174122121], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990749609936], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784031098624882], ["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534377913303e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642827487145e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493724902661], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -4.483550652137913e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785080621756492e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04832067459914588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701024091269781e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829516859943]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001110721676941526], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002932512215503435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.6968214137435724e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.572468624513282e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -2.373751940281561e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.892540310878246e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.003023914758429972], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.8505120456348906e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.008313541145491732]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012567926754792063], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.629501862339959e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140332715598e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.9352862227265845e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.03130675409507e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249852645124e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268139626326], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809678870932314e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002255722433634215], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302376388], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810883018274e-07], ["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500207583079e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4217454162173815e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437461866171e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 7.594330709376935e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338978917476e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.012114027059998e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361220823e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006732815924e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1441883345112593e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 7.882216407895335e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.7108727081086908e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.2707187309330745e-08], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 7.881839802257623e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2113169489458738e-10], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.446003366407962e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.503401806104115e-09], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.467492803700577e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -2.5910771056324868e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.9329940814389547e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850735210374e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745147767363e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.502927193198679e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036512918743e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481039578967e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517451536934e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.921747985327906e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286111135711e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256837991232e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592384176885e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.685511325316155e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942312886034], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.655508049897572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407854194487e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.008465541858917376], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506511345476], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913476026941]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.9657755445545175e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 9.276774399233396e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3427556626580776e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.104711564430148e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.0412277246737467e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0742039270972435e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0002071956738013471], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 5.118753255672738e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002320041143674375]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.748811556039522e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.106485307320895e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350911567306e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433845077275e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.6476432471289036e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051415241021e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857102479707e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291499463574e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.289262690870447e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.000120565067856513], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117931910422e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259240481588e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974298758546e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365934854369524], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.5430666589059595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454301239254e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007021152966851787], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384131504853], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160851394542]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.077751227363725e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00021038553506179435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.445987149379273e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00017682967427184716], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.924906897834017e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.095227150619627e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0001843080425697271], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.330192065752426e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002154571289781992]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.533404340284098e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.699075164313112e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070194414146e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121829025735e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.450391640369128e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566019319788925e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076112194e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987108132407e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.822782826079593e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748269548926e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592229927e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6594221735908755e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.08723206768521e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502116614167], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.3502482017765224e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437080635149e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.0072041929720684], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416679382304], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.000394338234954416]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.629260994656057e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00022544040345164336], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.543616033842605e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018687510583070783], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.799507873467332e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1752185403175747e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000197169117477208], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.105708339691152e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002213695554226876]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.690682827723835e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.894504859908997e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730514205653e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213206658685e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862385431482e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109899140379e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.08050155465082e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242083620995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.880915165142973e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771324633547e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728032596e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310383307661e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910137553682265e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167073929974], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004840761417898636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701470015452e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01100229843128134], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805796530133], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874627086288]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.806050419272405e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.000520841336868328], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.955068776841133e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00023398083536964925], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00049837304176089], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.896350735007726e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0009464373135431441], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0006392402898265067], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.005859818076640715]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00010326448776612292], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.135301094651262e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684389865708e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3138001845025533e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566631797736e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597530906727e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.76784779611873e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728436644458], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.873778853494523e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767022481711e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181713646e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.692304290374757e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.907956394107946e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.5055015016968668e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.1907824913554327e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.7672419278066125e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.624779485954121e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.936296829477741e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.935008296424061e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0300356656591139e-10], ["'remanufacturing - CONSQ' (unit, GLO, None)", 8.40126484738488e-10], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.953978197053973e-10], ["'marginal heating grid' (megajoule, GLO, None)", -7.527507508484313e-10], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.3455831299405781e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8836209639033063e-11], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 4.467504148212031e-10], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.4681484147388706e-10], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.847776843313269e-09]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 5.100243095491537e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.740361465735772e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5103068344130866e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4750248470349614e-11], ["'marginal heating grid' (megajoule, GLO, None)", -6.174209169405062e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.464136842877876e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.403369204699211e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.490217962553474e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.85866318308428e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.754642806959737e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.930712836833625e-11], ["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.530961925438572e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.0818481023523878e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.35485390254059e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.61913421664475e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.74213192829524e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.17438991496881e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.670539074431528e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.42507791524103e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.270897688684554e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.5691739144583787e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.409240511761939e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.1774269512702895e-07], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.06734806680131e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.37106596414762e-09], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.712538957620515e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.35269537215764e-08], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.393282879788907e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.858820576754194e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.057921655366954e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.262274388499573e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.532194815639085e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.7859682548426573e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6583290538993257e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013772547880148e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.087874992624398e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.257777988942284e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.30071617143119e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.000725056733894e-08], ["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467108451222], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921687276314708], ["'marginal heating grid' (megajoule, GLO, None)", -0.0165718119054035], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0001278699240409968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633846398415], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1038974327029888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01497277433527767], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598893024]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0034423195428494946], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.013413761948552035], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0002960843638157354], ["'marginal heating grid' (megajoule, GLO, None)", -0.00828590595270173], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00017930475019074563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.344816923199207e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01307540799446512], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.007486387167638835], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.05168792979329954]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00041936375153362235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00064202282351914], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357975205731], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771363828207e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262435120441], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042447911055], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333294756017], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270329445913], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0002493563734904014], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530635915279], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359668850061], ["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706]]</t>
   </si>
 </sst>
 </file>

--- a/Brighway/Results/Lobster - CONSQ_recipe.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -79,193 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094580646197e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551885141672e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207408364119], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.9424096073932455e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723199769646e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.02050901714773526], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404844397911], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410065761562]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.189191416859919e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002142350431228942], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.80775942570836e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001325103704182056], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 3.915882175314984e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.366861599884823e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0005112050328807811], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.716202422198956e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002942949075305344]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.86170306298095e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.311680702144928e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204673004975e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.190375338436383e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760252383762e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.84679660445287e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342434518008e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036227174126e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.061852162439963e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606079428148], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766940017136e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009325515434538526], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.08554539410238576], ["'marginal heating grid' (megajoule, GLO, None)", -0.321571709779058], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4270857257568958], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0032173271795943796], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 2.114798868027516], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0878138784946372], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1673284721271688]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.026015227193632938], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1644467878497234], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.04277269705119288], ["'marginal heating grid' (megajoule, GLO, None)", -0.1607858548895286], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.47612660431090775], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0016086635897971898], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.08366423606358439], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0439069392473186], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.9953245369137518]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.06551939661873293], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08138351721865625], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003814525723658258], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035837599641723806], ["'marginal heating grid' (megajoule, GLO, None)", -0.013187970898078154], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020618130591984193], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001447673711586071], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.015509725751329823], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004592144233444331], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01502606675786426], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004617597383024384], ["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509249348455834], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035374321254918214], ["'marginal heating grid' (megajoule, GLO, None)", -0.007162842481978925], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035046468899407365], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045990398681e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6741814191877433], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564036454333], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158454766]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0007116270644802218], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0242682121500913], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017687160627459107], ["'marginal heating grid' (megajoule, GLO, None)", -0.0035814212409894528], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.03551489294522951], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0125229951993404e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01271280579227383], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0009190782018227167], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2248738873827775]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.001983859419678765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0034631998746206564], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349555683579], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392394337268], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002937551884298491], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584547928295], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450137718219], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0003608699446093439], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001903251328730217], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110549192088], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605185374], ["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874697166967], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313158973829], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900759300749], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04820510443510289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172160899796e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9073947001769319], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909549658066], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077171308]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012039920106822516], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02959405929183849], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0021836565794869146], ["'marginal heating grid' (megajoule, GLO, None)", -0.004590950379650362], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.04917423515046999], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.802586080449898e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01762636038585654], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.001227454774829033], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2877411312722148]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002311317880048628], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0042216155079845535], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732030141519], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0001829601957459112], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037655874668172023], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054074450546], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265909965], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224847660157], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002609367440933059], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296464944], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248532507], ["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459857534308], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216836714112778], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355660969125], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.908442441164732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985624892485], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 142.5049592395001], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.2276549680986919], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646472187304]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.49453984500760945], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.983916377511453], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.1108418357056389], ["'marginal heating grid' (megajoule, GLO, None)", -0.36026778304845525], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0596299696603344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.005418492812446243], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.677823236093652], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.11382748404934595], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 2.546468020243017]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.2252992816864935], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.24271409960333384], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272287989093], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701158783166], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549869555518908], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.05210959956542514], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922925970492], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276509069969723], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5686412289156503], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110622004859], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113299929964], ["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109149814385], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469365329478], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222216549982], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00015856343281243795], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396235820459], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.5410164582430257], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.039286400370077315], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828454099175]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.008172405327559753], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.03710070236307969], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0008912234682664739], ["'marginal heating grid' (megajoule, GLO, None)", -0.024281111082749843], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.000987298390862346], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00019086981179102294], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.03461414227049588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019643200185038658], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.2496764438308534]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.002231940392843092], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0021719241568000786], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924505756626], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467219055374411e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843128882264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120168859323], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341654142947], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392660350875], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001095786629865357], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0034329193161314], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.00111952909687468], ["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204030692221e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.914120965056034e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.788840872700373e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.600136851699164e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782197989474e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001890982889241434], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.099117816000005e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860519699954e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 2.572144181357852e-06], ["'remanufacturing - CONSQ' (unit, GLO, None)", 1.587294483358675e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.457060482528017e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.3944204363501828e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.0182434959841595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.712391098994737e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.877930259849977e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.0495589080000026e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.0008497523123631206]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.219754319209325e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.728628093891124e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448956289616e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208150017783293e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.143730967310937e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356845301213e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.58611451315718e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.698054189562318e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.087117608129836e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746602707206e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407246956895e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977545004983986e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1133369856265497e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778141272062e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.0324420854910215e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264413691084e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.539097603533262e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.72715935873183e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926579933e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 6.967942014623896e-07], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.1395937588031056e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5566684928132748e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.2282889070636e-06], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.1299016310482815e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8149632206845542e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.548549463289967e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.363579679365915e-06], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.56499729633497e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 2.1692625296693617e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.6602061440711684e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860248010308e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.304272726911709e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666314345004e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252798909517e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349726529e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581882537017e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.186793961367426e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082120485402e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295539009058e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702790571], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010861853519675449], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283267042742], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007849442021127327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875980857426e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1955363775454057], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00203702359113404], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598057159]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0003414057247029163], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.005187674718503795], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005430926759837724], ["'marginal heating grid' (megajoule, GLO, None)", -0.0013595641633521336], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.007459795477102267], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.787437990428713e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.007025897990285796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00101851179556702], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04537671027530846]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.000418871305882712], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0010036488171905119], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916367216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.550364889771678e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411691455714], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.000531699784508091], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467595989659], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00041689141459805176], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.000602394619114396], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242759046064], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955009468325], ["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0077777954038819866], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716147362856], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724462188917], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5608448734891134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114641089704], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 16.59090690811163], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.050129570869011916], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613420709832]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.02169757971227872], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.1201611246801622], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017609858073681428], ["'marginal heating grid' (megajoule, GLO, None)", -0.05401362231094444], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.5526754238247321], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017669057320544852], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.1658806710354916], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.025064785434505958], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.702444635111985]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.01119026669099142], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03120299188297309], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435190977686], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623554293078], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303148407812], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155722189106], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292782231365], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00868648440412468], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05211590915166358], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.110995864923599], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819497021106], ["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786115345924e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095839673291298e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814224009292], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00024938155552373245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538497901346e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1967138476253886], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004890718903], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464182967628]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00011152553957208868], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0007286089983146754], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.047919836645649e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.005509407112004631], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0002635811664768225], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.287269248950673e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.001075232091483814], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0013588002445359452], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.1021988106281972]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018323512533190332], ["'dishwasher - CONSQ' (unit, GLO, None)", 4.279825636451156e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616733860435e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580904433218917e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923677005236], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694664858208e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186048915899e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547215589329], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0007589446962757312], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868935352285e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991490379816], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087301930240884], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563820375881271], ["'marginal heating grid' (megajoule, GLO, None)", -0.05275177186002944], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.007260797621957418], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025186576623], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1793857929640484], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062694315345134], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136619436102]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00106251479596386], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.02969752667298829], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.017819101879406354], ["'marginal heating grid' (megajoule, GLO, None)", -0.026375885930014647], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -0.0060203125438594175], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014759012593288311], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000750068309718051], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.009531347157672567], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.04134644880573465]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.033357946297844235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.034992920915687314], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001557929896502628], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929940900498897], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163401850834803], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204441957687172], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65975520421844e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409587899722305], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0008459568174122121], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990749609936], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784031098624882], ["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534377913303e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642827487145e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493724902661], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -4.483550652137913e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785080621756492e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04832067459914588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701024091269781e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829516859943]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001110721676941526], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.0002932512215503435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.6968214137435724e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.572468624513282e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", -2.373751940281561e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.892540310878246e-07], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.003023914758429972], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.8505120456348906e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.008313541145491732]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012567926754792063], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.629501862339959e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140332715598e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.9352862227265845e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.03130675409507e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249852645124e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268139626326], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809678870932314e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002255722433634215], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302376388], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810883018274e-07], ["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500207583079e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4217454162173815e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437461866171e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 7.594330709376935e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338978917476e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.012114027059998e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361220823e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006732815924e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1441883345112593e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 7.882216407895335e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.7108727081086908e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.2707187309330745e-08], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 7.881839802257623e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2113169489458738e-10], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 3.446003366407962e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.503401806104115e-09], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.467492803700577e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -2.5910771056324868e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.9329940814389547e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850735210374e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745147767363e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.502927193198679e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036512918743e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481039578967e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517451536934e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.921747985327906e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286111135711e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256837991232e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592384176885e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.685511325316155e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942312886034], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.655508049897572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407854194487e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.008465541858917376], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506511345476], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913476026941]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.9657755445545175e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 9.276774399233396e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3427556626580776e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.104711564430148e-05], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 2.0412277246737467e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0742039270972435e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0002071956738013471], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 5.118753255672738e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002320041143674375]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.748811556039522e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.106485307320895e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350911567306e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433845077275e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.6476432471289036e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051415241021e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857102479707e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291499463574e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.289262690870447e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.000120565067856513], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117931910422e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259240481588e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974298758546e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365934854369524], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.5430666589059595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454301239254e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007021152966851787], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384131504853], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160851394542]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.077751227363725e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00021038553506179435], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.445987149379273e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00017682967427184716], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.924906897834017e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.095227150619627e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0001843080425697271], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.330192065752426e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002154571289781992]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.533404340284098e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.699075164313112e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070194414146e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121829025735e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.450391640369128e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566019319788925e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076112194e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987108132407e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.822782826079593e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748269548926e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592229927e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6594221735908755e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.08723206768521e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502116614167], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.3502482017765224e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437080635149e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.0072041929720684], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416679382304], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.000394338234954416]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.629260994656057e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.00022544040345164336], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.543616033842605e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018687510583070783], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.799507873467332e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1752185403175747e-06], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.000197169117477208], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.105708339691152e-05], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.002213695554226876]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.690682827723835e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.894504859908997e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730514205653e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213206658685e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862385431482e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109899140379e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.08050155465082e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242083620995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.880915165142973e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771324633547e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728032596e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310383307661e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910137553682265e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167073929974], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004840761417898636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701470015452e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01100229843128134], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805796530133], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874627086288]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 3.806050419272405e-05], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.000520841336868328], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.955068776841133e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00023398083536964925], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00049837304176089], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.896350735007726e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.0009464373135431441], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0006392402898265067], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.005859818076640715]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00010326448776612292], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.135301094651262e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684389865708e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3138001845025533e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566631797736e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597530906727e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.76784779611873e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728436644458], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.873778853494523e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767022481711e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181713646e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.692304290374757e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.907956394107946e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.5055015016968668e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.1907824913554327e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.7672419278066125e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.624779485954121e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.936296829477741e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.935008296424061e-10]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0300356656591139e-10], ["'remanufacturing - CONSQ' (unit, GLO, None)", 8.40126484738488e-10], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.953978197053973e-10], ["'marginal heating grid' (megajoule, GLO, None)", -7.527507508484313e-10], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 1.3455831299405781e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8836209639033063e-11], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 4.467504148212031e-10], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.4681484147388706e-10], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 4.847776843313269e-09]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 5.100243095491537e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.740361465735772e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5103068344130866e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4750248470349614e-11], ["'marginal heating grid' (megajoule, GLO, None)", -6.174209169405062e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.464136842877876e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.403369204699211e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.490217962553474e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.85866318308428e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.754642806959737e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.930712836833625e-11], ["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.530961925438572e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.0818481023523878e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.35485390254059e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.61913421664475e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.74213192829524e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.17438991496881e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.670539074431528e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.42507791524103e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 4.270897688684554e-08], ["'remanufacturing - CONSQ' (unit, GLO, None)", 2.5691739144583787e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.409240511761939e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.1774269512702895e-07], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 6.06734806680131e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.37106596414762e-09], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 2.712538957620515e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 8.35269537215764e-08], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 3.393282879788907e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.858820576754194e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.057921655366954e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.262274388499573e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.532194815639085e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.7859682548426573e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6583290538993257e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013772547880148e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.087874992624398e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.257777988942284e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.30071617143119e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.000725056733894e-08], ["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467108451222], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921687276314708], ["'marginal heating grid' (megajoule, GLO, None)", -0.0165718119054035], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0001278699240409968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633846398415], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1038974327029888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01497277433527767], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598893024]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706], ["'sc2 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0034423195428494946], ["'remanufacturing - CONSQ' (unit, GLO, None)", 0.013413761948552035], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0002960843638157354], ["'marginal heating grid' (megajoule, GLO, None)", -0.00828590595270173], ["'sc2 Waste - CONSQ' (kilogram, GLO, None)", 0.00017930475019074563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.344816923199207e-05], ["'diathermy RM raw materials- CONSQ' (unit, GLO, None)", 0.01307540799446512], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.007486387167638835], ["'diathermy RM manufacturing - CONSQ' (unit, GLO, None)", 0.05168792979329954]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00041936375153362235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00064202282351914], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357975205731], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771363828207e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262435120441], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042447911055], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333294756017], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270329445913], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0002493563734904014], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530635915279], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359668850061], ["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706]]</t>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094580646197e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551885141672e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207408364119], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.9424096073932455e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723199769646e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.02050901714778922], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404844525798], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410065761786]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001476950510496825], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.311680702144928e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204673004975e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.190375338436383e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760252383762e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.84679660445287e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342434547025e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.5850362268913514e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.061852162440293e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606079426577], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766939979848e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009325515434538526], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.08554539410238576], ["'marginal heating grid' (megajoule, GLO, None)", -0.321571709779058], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4270857257568958], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0032173271795943796], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 2.11479886803087], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0878138784946902], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1673284721271996]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.10919899436455488], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08138351721865625], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003814525723658258], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035837599641723806], ["'marginal heating grid' (megajoule, GLO, None)", -0.013187970898078154], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020618130591984193], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001447673711616993], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.015509725751071709], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004592144233441703], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01502606675785721], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.00461759738298128], ["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509249348455834], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035374321254918214], ["'marginal heating grid' (megajoule, GLO, None)", -0.007162842481978925], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035046468899407365], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045990398681e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6741814191890961], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564036779605], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158455311]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.003306432366131275], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0034631998746206564], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349555683579], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392394337268], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002937551884298491], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584547928295], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450137783154], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00036086994453974567], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001903251328730233], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.00987611054918874], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605175791], ["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874697166967], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313158973829], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900759300749], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04820510443510289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172160899796e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9073947001788052], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0024549095497034042], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077172122]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0038521964667477134], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0042216155079845535], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732030141519], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0001829601957459112], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037655874668172023], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054074450546], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265919015], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224838086283], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002609367440933142], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296464482], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248519454], ["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459857534308], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216836714112778], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355660969125], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.908442441164732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985624892485], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 142.5049592399731], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765496811026448], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646472191376]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.3754988028108225], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.24271409960333384], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272287989093], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701158783166], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549869555518908], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.05210959956542514], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922925991405], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276509067972876], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.568641228915902], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110622004039], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113299907694], ["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109149814385], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469365329478], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222216549982], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00015856343281243795], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396235820459], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.5410164582435485], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.03928640037008963], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828454099925]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.003719900654738486], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0021719241568000786], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924505756626], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467219055374411e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843128882264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120168859323], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341654213016], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392660293261], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001095786629864496], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919316129022], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529096865705], ["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204030692221e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.914120965056034e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.788840872700373e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.600136851699164e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782197989474e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001890982889244008], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178160058795e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860519702804e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -5.3662571986822085e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.728628093891124e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448956289616e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208150017783293e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.143730967310937e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356845301213e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114513312623e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980541894171984e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.087117608129878e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.63774660270677e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407246935147e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977545004983986e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1133369856265497e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778141272062e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.0324420854910215e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264413691084e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.539097603518797e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159358726135e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926573616e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.6154375494489356e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.6602061440711684e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860248010308e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.304272726911709e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666314345004e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252798909517e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349810851e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581882499473e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.186793961363511e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082120481051e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295538992739e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702790571], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010861853519675449], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283267042742], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007849442021127327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875980857426e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1955363775460773], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00203702359114914], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598057464]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0006981188431378532], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0010036488171905119], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916367216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.550364889771678e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411691455714], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.000531699784508091], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467596028685], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0004168914145612539], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0006023946191143742], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242759045481], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955009420369], ["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0077777954038819866], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716147362856], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724462188917], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5608448734891134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114641089704], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 16.59090690815166], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.050129570869998336], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613420712199]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0186504444849857], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03120299188297309], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435190977686], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623554293078], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303148407812], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155722189106], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292782250997], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484402204082], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05211590915167232], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958649235003], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819496996259], ["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786115345924e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095839673291298e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814224009292], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00024938155552373245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538497901346e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1967138476254507], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002717600489074018], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464182967634]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0003053918755531722], ["'dishwasher - CONSQ' (unit, GLO, None)", 4.279825636451156e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616733860435e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580904433218917e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923677005236], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694664858208e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186048882281e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000614154721555518], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0007589446962757218], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.68486893534058e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991490375662], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087301930240884], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563820375881271], ["'marginal heating grid' (megajoule, GLO, None)", -0.05275177186002944], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.007260797621957418], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025186576623], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1793857929621094], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062694315284935], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136619436619]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.055596577163073715], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.034992920915687314], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001557929896502628], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929940900498897], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163401850834803], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204441957687172], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.659755205042397e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409587900383291], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0008459568174115382], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990749493046], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784031098494688], ["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534377913303e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642827487145e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493724902661], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -4.483550652137913e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785080621756492e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04832067459926767], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.70102409078243e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829516838142]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00020946544591320102], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.629501862339959e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140332715598e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.9352862227265845e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.03130675409507e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249852645124e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268139624544], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.780967887078602e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002255722433638385], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302376311], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810775069605e-07], ["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500207583079e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4217454162173815e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437461866171e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 7.594330709376935e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338978917476e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.012114027063412e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.9006803612253337e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.89200673281937e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -4.318461842720811e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.9329940814389547e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850735210374e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745147767363e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.502927193198679e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036512918743e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.76248103958851e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.425351745053266e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.921747985327651e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286111130902e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256837967759e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592384176885e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.685511325316155e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942312886034], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.655508049897572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407854194487e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.008465541858933992], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0001023750651138564], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913476027914]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.24801926006587e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.106485307320895e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350911567306e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433845077275e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.6476432471289036e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051415241021e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857102580398e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291498504353e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.289262690870313e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650678564698], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117931896792e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259240481588e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974298758546e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365934854369524], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.5430666589059595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454301239254e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007021152966864775], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384131537403], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160851395476]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012555673900473496], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.699075164313112e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070194414146e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121829025735e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.450391640369128e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566019319788925e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.05332007612404e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987108029752e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.822782826078561e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748269544414e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592214483e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6594221735908755e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.08723206768521e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502116614167], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.3502482017765224e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437080635149e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007204192972081411], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416679415445], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382349545143]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012817804712873058], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.894504859908997e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730514205653e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213206658685e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862385431482e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109899140379e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501554663151e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242083514482e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.880915165141834e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771324628818e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728016579e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310383307661e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910137553682265e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167073929974], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004840761417898636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701470015452e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01100229843129399], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805796531476], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874627086414]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00017210747961020486], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.135301094651262e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684389865708e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3138001845025533e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566631797736e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597530906727e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847795995529e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728436539867], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.873778853493358e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.59376702248496e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181697963e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.692304290374757e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.907956394107946e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.5055015016968668e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.1907824913554327e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.7672419278066125e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.624779485955478e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.936296829479007e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.93500829642627e-10]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.500405159152561e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.740361465735772e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5103068344130866e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4750248470349614e-11], ["'marginal heating grid' (megajoule, GLO, None)", -6.174209169405062e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.464136842877876e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.4033692047269e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.490217962427831e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.858663183083158e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.754642806957956e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.930712836795227e-11], ["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.530961925438572e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.0818481023523878e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.35485390254059e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.61913421664475e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.74213192829524e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.174389914971303e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.670539074437296e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.425077915242567e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 1.476470096125699e-07], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.057921655366954e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.262274388499573e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.532194815639085e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.7859682548426573e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6583290538993257e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.01377254789515e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.087874992483889e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.257777988942143e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.300716171430608e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.000725056714027e-08], ["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467108451222], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921687276314708], ["'marginal heating grid' (megajoule, GLO, None)", -0.0165718119054035], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0001278699240409968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633846398415], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1038974327030175], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774335279344], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598892698]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0006989395858893705], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00064202282351914], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357975205731], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771363828207e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262435120441], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042447911055], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333294774067], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270329301024], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0002493563734899737], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530635914517], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359668852807], ["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706]]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,64 +636,64 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
-      </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -764,129 +701,64 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
       <c r="T3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
         <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Brighway/Results/Lobster - CONSQ_recipe.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe.xlsx
@@ -16,193 +16,193 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094580646197e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551885141672e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207408364119], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.9424096073932455e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723199769646e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.02050901714778922], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404844525798], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410065761786]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001476950510496825], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.311680702144928e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204673004975e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.190375338436383e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760252383762e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.84679660445287e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342434547025e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.5850362268913514e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.061852162440293e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606079426577], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766939979848e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162831144612]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009325515434538526], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.08554539410238576], ["'marginal heating grid' (megajoule, GLO, None)", -0.321571709779058], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4270857257568958], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0032173271795943796], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 2.11479886803087], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0878138784946902], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1673284721271996]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.10919899436455488], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08138351721865625], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003814525723658258], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035837599641723806], ["'marginal heating grid' (megajoule, GLO, None)", -0.013187970898078154], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020618130591984193], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001447673711616993], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.015509725751071709], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004592144233441703], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01502606675785721], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.00461759738298128], ["'erbe - CONSQ' (unit, GLO, None)", 0.4363066839731614]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509249348455834], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035374321254918214], ["'marginal heating grid' (megajoule, GLO, None)", -0.007162842481978925], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035046468899407365], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045990398681e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6741814191890961], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564036779605], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158455311]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.003306432366131275], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0034631998746206564], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349555683579], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392394337268], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002937551884298491], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584547928295], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450137783154], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00036086994453974567], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001903251328730233], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.00987611054918874], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605175791], ["'erbe - CONSQ' (unit, GLO, None)", 0.0339524863865344]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874697166967], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313158973829], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900759300749], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04820510443510289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172160899796e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9073947001788052], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0024549095497034042], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077172122]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0038521964667477134], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0042216155079845535], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732030141519], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0001829601957459112], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037655874668172023], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054074450546], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265919015], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224838086283], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002609367440933142], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296464482], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248519454], ["'erbe - CONSQ' (unit, GLO, None)", 0.0413977606495082]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459857534308], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216836714112778], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355660969125], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.908442441164732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985624892485], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 142.5049592399731], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765496811026448], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646472191376]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.3754988028108225], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.24271409960333384], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272287989093], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701158783166], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549869555518908], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.05210959956542514], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922925991405], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276509067972876], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.568641228915902], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110622004039], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113299907694], ["'erbe - CONSQ' (unit, GLO, None)", 2.154164017706651]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109149814385], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469365329478], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222216549982], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00015856343281243795], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396235820459], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.5410164582435485], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.03928640037008963], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828454099925]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.003719900654738486], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0021719241568000786], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924505756626], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467219055374411e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843128882264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120168859323], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341654213016], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392660293261], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001095786629864496], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919316129022], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529096865705], ["'erbe - CONSQ' (unit, GLO, None)", 0.01042091451162783]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204030692221e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.914120965056034e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.788840872700373e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.600136851699164e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782197989474e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001890982889244008], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178160058795e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860519702804e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -5.3662571986822085e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.728628093891124e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448956289616e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208150017783293e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.143730967310937e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356845301213e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114513312623e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980541894171984e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.087117608129878e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.63774660270677e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407246935147e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.981529996860703e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977545004983986e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1133369856265497e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778141272062e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.0324420854910215e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264413691084e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.539097603518797e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159358726135e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926573616e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.6154375494489356e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.6602061440711684e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860248010308e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.304272726911709e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666314345004e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252798909517e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349810851e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581882499473e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.186793961363511e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082120481051e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295538992739e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.748164578866456e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702790571], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010861853519675449], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283267042742], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007849442021127327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875980857426e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1955363775460773], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00203702359114914], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598057464]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0006981188431378532], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0010036488171905119], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916367216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.550364889771678e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411691455714], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.000531699784508091], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467596028685], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0004168914145612539], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0006023946191143742], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242759045481], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955009420369], ["'erbe - CONSQ' (unit, GLO, None)", 0.007023573009286899]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0077777954038819866], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716147362856], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724462188917], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5608448734891134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114641089704], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 16.59090690815166], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.050129570869998336], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613420712199]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0186504444849857], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03120299188297309], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435190977686], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623554293078], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303148407812], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155722189106], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292782250997], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484402204082], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05211590915167232], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958649235003], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819496996259], ["'erbe - CONSQ' (unit, GLO, None)", 0.2679148356478546]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786115345924e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095839673291298e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814224009292], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00024938155552373245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538497901346e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1967138476254507], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002717600489074018], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464182967634]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0003053918755531722], ["'dishwasher - CONSQ' (unit, GLO, None)", 4.279825636451156e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616733860435e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580904433218917e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923677005236], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694664858208e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186048882281e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000614154721555518], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0007589446962757218], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.68486893534058e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991490375662], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182997242057]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087301930240884], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563820375881271], ["'marginal heating grid' (megajoule, GLO, None)", -0.05275177186002944], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.007260797621957418], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025186576623], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1793857929621094], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062694315284935], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136619436619]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.055596577163073715], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.034992920915687314], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001557929896502628], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929940900498897], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163401850834803], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204441957687172], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.659755205042397e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409587900383291], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0008459568174115382], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990749493046], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784031098494688], ["'erbe - CONSQ' (unit, GLO, None)", 0.1786632073470346]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534377913303e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642827487145e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493724902661], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -4.483550652137913e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785080621756492e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04832067459926767], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.70102409078243e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829516838142]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00020946544591320102], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.629501862339959e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140332715598e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.9352862227265845e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.03130675409507e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249852645124e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268139624544], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.780967887078602e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002255722433638385], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302376311], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810775069605e-07], ["'erbe - CONSQ' (unit, GLO, None)", 3.117715357752167e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500207583079e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4217454162173815e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437461866171e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 7.594330709376935e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338978917476e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.012114027063412e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.9006803612253337e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.89200673281937e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -4.318461842720811e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.9329940814389547e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850735210374e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745147767363e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.502927193198679e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036512918743e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.76248103958851e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.425351745053266e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.921747985327651e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286111130902e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256837967759e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.748270715434375e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592384176885e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.685511325316155e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942312886034], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.655508049897572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407854194487e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.008465541858933992], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0001023750651138564], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913476027914]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.24801926006587e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.106485307320895e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350911567306e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433845077275e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.6476432471289036e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051415241021e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857102580398e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291498504353e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.289262690870313e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650678564698], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117931896792e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765738691238]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259240481588e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974298758546e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365934854369524], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.5430666589059595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454301239254e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007021152966864775], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384131537403], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160851395476]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012555673900473496], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.699075164313112e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070194414146e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121829025735e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.450391640369128e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566019319788925e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.05332007612404e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987108029752e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.822782826078561e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748269544414e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592214483e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203793874102]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6594221735908755e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.08723206768521e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502116614167], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.3502482017765224e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437080635149e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007204192972081411], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416679415445], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382349545143]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012817804712873058], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.894504859908997e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730514205653e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213206658685e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862385431482e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109899140379e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501554663151e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242083514482e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.880915165141834e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771324628818e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728016579e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715962470032]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310383307661e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910137553682265e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167073929974], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004840761417898636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701470015452e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01100229843129399], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805796531476], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874627086414]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00017210747961020486], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.135301094651262e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684389865708e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3138001845025533e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566631797736e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597530906727e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847795995529e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728436539867], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.873778853493358e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.59376702248496e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181697963e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184355177342]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.692304290374757e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -5.907956394107946e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.5055015016968668e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.1907824913554327e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.7672419278066125e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.624779485955478e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.936296829479007e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.93500829642627e-10]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 8.500405159152561e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.740361465735772e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5103068344130866e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4750248470349614e-11], ["'marginal heating grid' (megajoule, GLO, None)", -6.174209169405062e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.464136842877876e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.4033692047269e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.490217962427831e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.858663183083158e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.754642806957956e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.930712836795227e-11], ["'erbe - CONSQ' (unit, GLO, None)", 3.041022823068992e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.530961925438572e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.0818481023523878e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.35485390254059e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.61913421664475e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.74213192829524e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.174389914971303e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.670539074437296e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.425077915242567e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 1.476470096125699e-07], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.057921655366954e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.262274388499573e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.532194815639085e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.7859682548426573e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6583290538993257e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.01377254789515e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.087874992483889e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.257777988942143e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.300716171430608e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.000725056714027e-08], ["'erbe - CONSQ' (unit, GLO, None)", 6.011733097679691e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467108451222], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921687276314708], ["'marginal heating grid' (megajoule, GLO, None)", -0.0165718119054035], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0001278699240409968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633846398415], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1038974327030175], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774335279344], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598892698]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0006989395858893705], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00064202282351914], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357975205731], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771363828207e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262435120441], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042447911055], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333294774067], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270329301024], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0002493563734899737], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530635914517], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359668852807], ["'erbe - CONSQ' (unit, GLO, None)", 0.003231658862818706]]</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162847968659], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094611179564e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551886543551e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207439333752], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.942409598501523e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723409871653e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.02050901715472588], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432405061648952], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410066489967]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00014769505052096498], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.311680717498231e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.6762046854944e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1903753443092855e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760379393261e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796533618183e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342435347737e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036244203243e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.061852163805775e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606081067847], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.22376694309431e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162847968659]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.04535207933947222], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009201302613794149], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.007230671730614486], ["'marginal heating grid' (megajoule, GLO, None)", -0.15923734713289914], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4109895569474981], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001757551721674937], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.979007397530371], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.06719263505534334], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1671249427548749]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.014506243776983235], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.008629676600582488], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003763717486487502], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00030291510295966397], ["'marginal heating grid' (megajoule, GLO, None)", -0.006530479628692149], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020218838600535135], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017214714107], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247579306822], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.003607684906908342], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01438050042389325], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932434636634], ["'erbe - CONSQ' (unit, GLO, None)", 0.04535207933947222]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.03395248641689226], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0002550924941241196], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.003537432127022372], ["'marginal heating grid' (megajoule, GLO, None)", -0.0071628424644073355], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.03504646891141238], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025046469722318e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6741814188742182], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564088262063], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561155423113]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0033064323757187914], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0034631998800364124], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349581844309], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392400749215], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029375518770922103], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.000908658450638894], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450138438518], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0003608699438885832], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001903251328702273], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110550141369], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605008228], ["'erbe - CONSQ' (unit, GLO, None)", 0.03395248641689226]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.041397760688993], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00043158747056352764], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313160814589], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900737012428], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04820510444953367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172805047401e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9073946996907001], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909557720675], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272073031423]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.003852196480089289], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0042216155152505815], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732064780444], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0001829601958230263], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037655874576765437], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054018203935], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265999805], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0004840122477047153], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002609367440665699], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296580221], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248256344], ["'erbe - CONSQ' (unit, GLO, None)", 0.041397760688993]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164018649894], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459865482537], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216836709138651], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355643577156], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9084424390751231], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836986445381041], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 142.5049591207875], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.227654971088131], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646463085804]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.37549880558350607], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.24271410025585774], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0725127229124025], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701156699351], ["'marginal heating grid' (megajoule, GLO, None)", -0.02954986948419274], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.05210959829700227], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.175792292585522], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.042765090936779486], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5686412285085176], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110621636363], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113298141556], ["'erbe - CONSQ' (unit, GLO, None)", 2.154164018649894]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091460072513], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.002929510916092916], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469466356976], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222225646654], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00015856344719451484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396328126644], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.5410164575367836], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.03928640044673647], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828456128438]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0037199006163326975], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0021719241628444714], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924510303035], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.46721909769794e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843166188607], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120123231993], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341659134862], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392665036504], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001095786629617734], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919325108199], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.00111952909798467], ["'erbe - CONSQ' (unit, GLO, None)", 0.01042091460072513]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981530008905569e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204053288254e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9141209769268205e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.7888408732932575e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.600136920286987e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782299247114e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001890982886554404], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178196961845e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860517280525e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -5.366257173129877e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.728628112897148e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448965532338e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208150067513672e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.1437309675540849e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356804903882e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114517349578e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.69805419152749e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.087117605071815e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746603714495e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407248989148e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.981530008905569e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748164595937107e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.497754502670679e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1133370057098417e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.456577821463238e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.0324420924906786e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264401901872e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.539097592580418e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159363943776e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098934114988e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.6154375494497495e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 5.660206146315197e-06], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860256895843e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3042727353252184e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666344430788e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.659925283281481e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.03106235751761e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.24858188513278e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.186793961911899e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082135093087e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295542556085e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.748164595937107e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573030693639], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00012238157033571878], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001086185353527986], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283203155006], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00784944202543319], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748762808397655e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1955363764898852], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002037023598206708], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179595949471]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.000698118847193943], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.001003648820562524], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917918684917e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.5503648963088456e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411665254727], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997812089449], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467595975095], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00041689141433627196], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0006023946171659584], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242759608738], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.000495895500469063], ["'erbe - CONSQ' (unit, GLO, None)", 0.007023573030693639]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148361562481], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00777779541729541], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716151420735], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724436044794], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5608448735327937], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338115704870317], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 16.59090689274364], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012957110118843], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613412697374]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.018650444838664407], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03120299201040533], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435245844193], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623555993049], ["'marginal heating grid' (megajoule, GLO, None)", -0.0044303031376858515], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.012671557103667243], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292782293693], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484412145049], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05211590911819076], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958649221762], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819496028685], ["'erbe - CONSQ' (unit, GLO, None)", 0.2679148361562481]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185183036733106], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786113895142e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095840535777162e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814219723227], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0002493815526718544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538494526215e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1967138471342996], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002717600487210065], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464178177809]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0003053918751344744], ["'dishwasher - CONSQ' (unit, GLO, None)", 4.2798257010744154e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.635261672792613e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580904794540803e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923675247479], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694606661941e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186050425684e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547212853718], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0007589446959427226], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868913105616e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991489367935], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002185183036733106]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632074874349], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0003808730258346669], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035638203760764015], ["'marginal heating grid' (megajoule, GLO, None)", -0.05275177187403129], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.007260797676897642], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025454003437], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1793857925464356], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062694836610293], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136644967943]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.05559657706168403], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.03499292090419259], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001557929923222295], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001492994090131636], ["'marginal heating grid' (megajoule, GLO, None)", -0.0021634018514090324], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204441089200563], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.659755309182569e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409588420800345], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0008459568187587978], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990846905144], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784031356544977], ["'erbe - CONSQ' (unit, GLO, None)", 0.1786632074874349]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117716495009869e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534386795917e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642978866779e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00017144937293414502], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -4.483550026470044e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785087868388897e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.0483206746460933], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701024386408447e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829525576741]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00020946544516944041], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.629501983288372e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140369049205e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.935286286144174e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.031306772298979e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881250041097488e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268140191491], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809678992290698e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002255722433998108], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944303405356], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.44680929005746e-07], ["'erbe - CONSQ' (unit, GLO, None)", 3.117716495009869e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270716926462e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500210411353e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.421745418138716e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437495085816e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 7.59433071147109e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226340353482853e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.012114027046613e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680384033253e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006747645827e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -4.3184618536684387e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.9329940817670076e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.67768507467792e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745155816426e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.5029272068223805e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.058503649150181e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481040564531e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.425351764005897e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.921747985056191e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286131627892e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256842224782e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.748270716926462e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765748801054], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.0465924016903525e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.6855113367895163e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00016209423313544852], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.6555080679303587e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407945222028e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.008465541858773743], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506636933763], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913483399673]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.248019211155538e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.106485313275212e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.8823509187310464e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433893142716e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.647643322869832e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.3100514128741956e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857108122979e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.999929160140276e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.289262691234492e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650679779008], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117934653105e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765748801054]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203822638214], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259293237962e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974338103194e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365935541877534], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.543066703831594e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.1904545422446535e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007021152989563475], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384580833676], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160887140026]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012555673653568244], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.699075164554991e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070215993709e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.7251218455084193e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.450391668564505e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.956601962041582e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320078192902e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987144659802e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.822782831074602e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748311536401e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186602056844e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203822638214]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715992002525], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.659422178793952e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.087232107415167e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502184805014], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.350248249985085e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437333576003e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.007204192994800859], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211417131077276], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382385267417]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00012817804464129593], ["'dishwasher - CONSQ' (unit, GLO, None)", 8.894504860779032e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730535488411e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213373099706e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.532786266508883e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109925158665e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501556771366e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.8052421200670825e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.880915170143362e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771367010571e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518737963836e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715992002525]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184368645799], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310399008528e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.91013756688041e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167047916804], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.000484076142547355], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701481528901e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01100229840749459], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805797428907], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874626871971]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001721074797663196], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.135301113939e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.5806843962880195e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3138001900316625e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.919156662112948e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597529616352e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847790726778e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728435513664], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.873778849454021e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.59376701197636e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840183784133e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184368645799]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.946320065983989e-09], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.6575237590623386e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.7150843417209633e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.0509528866962204e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.1457119886351037e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493690588831e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.586756836548348e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.3588863170274693e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929309324996541e-10]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 5.848935792296016e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.703198349275747e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960801428907765e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5563632229513548e-11], ["'marginal heating grid' (megajoule, GLO, None)", -4.310060762037716e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.352332023913065e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905374320589e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.31535935845341e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 4.583007052433393e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566458221603e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603315074139e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.946320065983989e-09]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.383671064249276e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5194347678818353e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.550868478756541e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.848388966209388e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.469760881368967e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.3885635844927575e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.161787946980699e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.4791702660992145e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183344144154e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 5.977329300874424e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.8276725137318845e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.2151234944503495e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4875681415388416e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.1681522239187556e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.621273473622544e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618800299039e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.029920196996576e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.166418976998341e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725187241019e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897434956409e-08], ["'erbe - CONSQ' (unit, GLO, None)", 2.383671064249276e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003231658894390169], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467112418851], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.000592168731470987], ["'marginal heating grid' (megajoule, GLO, None)", -0.016571811948630638], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0001278699213525949], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689634176020798], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1038974326427132], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774369202328], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081600472714]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0006989395657751273], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0006420228247100175], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357976828657], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771524677365e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262452848313], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042298064166], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333296798118], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.003650527035243983], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.00024935637344328], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530639407329], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359673261574], ["'erbe - CONSQ' (unit, GLO, None)", 0.003231658894390169]]</t>
   </si>
 </sst>
 </file>
